--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -83,9 +83,6 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Deploy to  webserver</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>Milestones</t>
+  </si>
+  <si>
+    <t>Duration in Days</t>
   </si>
 </sst>
 </file>
@@ -639,11 +639,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="285298696"/>
-        <c:axId val="285298304"/>
+        <c:axId val="147666600"/>
+        <c:axId val="147642696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285298696"/>
+        <c:axId val="147666600"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -686,7 +686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285298304"/>
+        <c:crossAx val="147642696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -694,7 +694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285298304"/>
+        <c:axId val="147642696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42759"/>
@@ -746,7 +746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285298696"/>
+        <c:crossAx val="147666600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="14"/>
@@ -1351,10 +1351,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1642,7 +1642,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,24 +1651,24 @@
     <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
